--- a/Practice/bibliotecaLast/bibliotecaLAST/BibliotecaBaseDatos.xlsx
+++ b/Practice/bibliotecaLast/bibliotecaLAST/BibliotecaBaseDatos.xlsx
@@ -85,24 +85,39 @@
     <x:t>Usuario_11</x:t>
   </x:si>
   <x:si>
+    <x:t>juancito</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jonatan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>profe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gym</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Libro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Juan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prestar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Devolver</x:t>
+  </x:si>
+  <x:si>
     <x:t>Usuario_12</x:t>
   </x:si>
   <x:si>
-    <x:t>Accion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Libro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Juan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prestar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Devolver</x:t>
-  </x:si>
-  <x:si>
     <x:t>IdLibro</x:t>
   </x:si>
   <x:si>
@@ -184,7 +199,7 @@
     <x:t>Autor J</x:t>
   </x:si>
   <x:si>
-    <x:t>juancito</x:t>
+    <x:t>joni</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -763,13 +778,41 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -807,10 +850,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E1" s="1"/>
     </x:row>
@@ -822,10 +865,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -833,10 +876,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>6</x:v>
@@ -847,10 +890,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>18</x:v>
@@ -864,7 +907,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>9</x:v>
@@ -875,10 +918,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>6</x:v>
@@ -892,7 +935,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>6</x:v>
@@ -903,10 +946,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>9</x:v>
@@ -920,7 +963,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>9</x:v>
@@ -934,7 +977,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>9</x:v>
@@ -948,7 +991,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>9</x:v>
@@ -962,7 +1005,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>9</x:v>
@@ -973,10 +1016,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>6</x:v>
@@ -990,7 +1033,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>9</x:v>
@@ -1001,10 +1044,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>6</x:v>
@@ -1036,33 +1079,33 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>10</x:v>
@@ -1076,10 +1119,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>11</x:v>
@@ -1093,10 +1136,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E4" s="0">
         <x:v>12</x:v>
@@ -1110,10 +1153,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E5" s="0">
         <x:v>13</x:v>
@@ -1124,13 +1167,13 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E6" s="0">
         <x:v>14</x:v>
@@ -1141,13 +1184,13 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="E7" s="0">
         <x:v>15</x:v>
@@ -1158,13 +1201,13 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E8" s="0">
         <x:v>16</x:v>
@@ -1175,13 +1218,13 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E9" s="0">
         <x:v>17</x:v>
@@ -1192,13 +1235,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E10" s="0">
         <x:v>18</x:v>
@@ -1209,13 +1252,13 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E11" s="0">
         <x:v>19</x:v>
@@ -1226,13 +1269,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E12" s="0">
         <x:v>20</x:v>
@@ -1243,13 +1286,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E13" s="0">
         <x:v>21</x:v>
@@ -1260,13 +1303,13 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E14" s="0">
         <x:v>22</x:v>
@@ -1277,13 +1320,13 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E15" s="0">
         <x:v>23</x:v>

--- a/Practice/bibliotecaLast/bibliotecaLAST/BibliotecaBaseDatos.xlsx
+++ b/Practice/bibliotecaLast/bibliotecaLAST/BibliotecaBaseDatos.xlsx
@@ -100,6 +100,9 @@
     <x:t>gym</x:t>
   </x:si>
   <x:si>
+    <x:t>joni</x:t>
+  </x:si>
+  <x:si>
     <x:t>Accion</x:t>
   </x:si>
   <x:si>
@@ -199,7 +202,16 @@
     <x:t>Autor J</x:t>
   </x:si>
   <x:si>
-    <x:t>joni</x:t>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mati</x:t>
+  </x:si>
+  <x:si>
+    <x:t>profesor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>code</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -806,13 +818,27 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -850,10 +876,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E1" s="1"/>
     </x:row>
@@ -865,10 +891,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -876,10 +902,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>6</x:v>
@@ -890,10 +916,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>18</x:v>
@@ -907,7 +933,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>9</x:v>
@@ -918,10 +944,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>6</x:v>
@@ -935,7 +961,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>6</x:v>
@@ -946,10 +972,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>9</x:v>
@@ -963,7 +989,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>9</x:v>
@@ -977,7 +1003,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>9</x:v>
@@ -991,7 +1017,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>9</x:v>
@@ -1005,7 +1031,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>9</x:v>
@@ -1016,10 +1042,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>6</x:v>
@@ -1033,7 +1059,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>9</x:v>
@@ -1044,10 +1070,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>6</x:v>
@@ -1079,33 +1105,33 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>10</x:v>
@@ -1119,10 +1145,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>11</x:v>
@@ -1136,10 +1162,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>37</x:v>
       </x:c>
       <x:c r="E4" s="0">
         <x:v>12</x:v>
@@ -1153,10 +1179,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E5" s="0">
         <x:v>13</x:v>
@@ -1167,13 +1193,13 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E6" s="0">
         <x:v>14</x:v>
@@ -1184,13 +1210,13 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>37</x:v>
       </x:c>
       <x:c r="E7" s="0">
         <x:v>15</x:v>
@@ -1201,13 +1227,13 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E8" s="0">
         <x:v>16</x:v>
@@ -1218,13 +1244,13 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E9" s="0">
         <x:v>17</x:v>
@@ -1235,13 +1261,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E10" s="0">
         <x:v>18</x:v>
@@ -1252,13 +1278,13 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E11" s="0">
         <x:v>19</x:v>
@@ -1269,13 +1295,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E12" s="0">
         <x:v>20</x:v>
@@ -1286,13 +1312,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="0">
         <x:v>21</x:v>
@@ -1303,13 +1329,13 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="0">
         <x:v>22</x:v>
@@ -1320,13 +1346,13 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E15" s="0">
         <x:v>23</x:v>
